--- a/Bug Reports/MT N99 Bug Report.xlsx
+++ b/Bug Reports/MT N99 Bug Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4647ED8-22F4-4E57-B6D9-EA6C20988AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3FD0AC-576F-4476-B3E3-FF86CE912707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
       <t>System Name</t>
@@ -95,6 +95,9 @@
   <si>
     <t>Messages N99-&gt; Message Type=MT799.</t>
   </si>
+  <si>
+    <t>Pass</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +105,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -138,7 +141,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,17 +301,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -312,15 +315,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -336,8 +330,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +632,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -632,9 +642,9 @@
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,50 +652,50 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -696,20 +706,23 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>45386</v>
       </c>
-      <c r="G4" s="19">
-        <v>45386</v>
+      <c r="G4" s="14">
+        <v>45407</v>
+      </c>
+      <c r="H4" s="4">
+        <v>45407</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45">
@@ -719,16 +732,16 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>45386</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="14">
         <v>45386</v>
       </c>
     </row>

--- a/Bug Reports/MT N99 Bug Report.xlsx
+++ b/Bug Reports/MT N99 Bug Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3FD0AC-576F-4476-B3E3-FF86CE912707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CB79A8-F5D0-48C4-BF4A-AD8821017B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,6 +332,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -347,7 +348,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +632,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,21 +652,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
@@ -706,7 +706,7 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="13" t="s">
